--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Cod random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7129C-FB14-4F10-A9E4-6B4B3CBE88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BA4438-0CB4-4B81-857D-A82F05CF628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
   <si>
     <t>Nume</t>
   </si>
@@ -183,14 +183,272 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Imi place sa desenez/pictez etc,imi plac dulciurile ,port 46 la picior/L la tricouri/bluze ()</t>
+    <t>Excluse</t>
+  </si>
+  <si>
+    <t>07.....</t>
+  </si>
+  <si>
+    <t>john.doe@example.org</t>
+  </si>
+  <si>
+    <t>șosete...</t>
+  </si>
+  <si>
+    <t>juliaelena228@gmail.com</t>
+  </si>
+  <si>
+    <t>ovioprescu9@gmail.com</t>
+  </si>
+  <si>
+    <t>cana</t>
+  </si>
+  <si>
+    <t>marius.cosmin005@gmail.com</t>
+  </si>
+  <si>
+    <t>Cana, moș de ciocolata</t>
+  </si>
+  <si>
+    <t>elenaclaudia085@gmail.com</t>
+  </si>
+  <si>
+    <t>ghiurcanasmaria8@gmail.com</t>
+  </si>
+  <si>
+    <t>Cana</t>
+  </si>
+  <si>
+    <t>raduudar5@gmail.com</t>
+  </si>
+  <si>
+    <t>eduard.oprea.148@gmail.com</t>
+  </si>
+  <si>
+    <t>ghineamariacornelia@gmail.com</t>
+  </si>
+  <si>
+    <t>dinuveronica514@gmail.com</t>
+  </si>
+  <si>
+    <t>alexandrzanfir@gmail.com</t>
+  </si>
+  <si>
+    <t>preda0478@gmail.com</t>
+  </si>
+  <si>
+    <t>cirsteaandreeabianca@gmail.com</t>
+  </si>
+  <si>
+    <t>opomega3567@gmail.com</t>
+  </si>
+  <si>
+    <t>Cana și dulciuri</t>
+  </si>
+  <si>
+    <t>gabisaru03@gmail.com</t>
+  </si>
+  <si>
+    <t>Imi place sa desenez/pictez etc,imi plac dulciurile ,port 46 la picior/L la tricouri/bluze</t>
+  </si>
+  <si>
+    <t>Poti sa iei orice</t>
+  </si>
+  <si>
+    <t>annemariee777@gmail.com</t>
+  </si>
+  <si>
+    <t>flaminzeanurobert@gmail.com</t>
+  </si>
+  <si>
+    <t>vladdobre991@gmail.com</t>
+  </si>
+  <si>
+    <t>dvr042002@gmail.com</t>
+  </si>
+  <si>
+    <t>alexvasilescu15@gmail.com</t>
+  </si>
+  <si>
+    <t>tanislav_a@yahoo.com</t>
+  </si>
+  <si>
+    <t>dolhascu111@gmail.com</t>
+  </si>
+  <si>
+    <t>ghitacorina53@gmail.com</t>
+  </si>
+  <si>
+    <t>anda.minciunescu11@gmail.com</t>
+  </si>
+  <si>
+    <t>cana, sosete, lumanari</t>
+  </si>
+  <si>
+    <t>biancamariafl5@gmail.com</t>
+  </si>
+  <si>
+    <t>florifilimbut@gmail.com</t>
+  </si>
+  <si>
+    <t>iustinburtea661@gmail.com</t>
+  </si>
+  <si>
+    <t>surprinde ma</t>
+  </si>
+  <si>
+    <t>silviunanu19@gmail.com</t>
+  </si>
+  <si>
+    <t>Fără șosete sau căni pls 🙏</t>
+  </si>
+  <si>
+    <t>îmbrăcăminte (eșarfă, mănuși, chestii de genul)</t>
+  </si>
+  <si>
+    <t>raulbalaban@yahoo.com</t>
+  </si>
+  <si>
+    <t>ce vreți voi</t>
+  </si>
+  <si>
+    <t>oprralexandra@gmail.com</t>
+  </si>
+  <si>
+    <t>Ceva lego puzzle idk ,nu cana😭</t>
+  </si>
+  <si>
+    <t>avramvladut82@gmail.com</t>
+  </si>
+  <si>
+    <t>ce vrea inima ta.</t>
+  </si>
+  <si>
+    <t>gherghinescualexandra2001@gmail.com</t>
+  </si>
+  <si>
+    <t>logofatul.m.00@gmail.com</t>
+  </si>
+  <si>
+    <t>o mașinuță cv nu știu, da' numai să nu fie lamborghini sau bmw)) ms anticipat pup</t>
+  </si>
+  <si>
+    <t>dulciuri, lumanari</t>
+  </si>
+  <si>
+    <t>alexdamian2500@gmail.com</t>
+  </si>
+  <si>
+    <t>mousepad de birou/sosete albe(45), husa telefon(iph 15 pro) sau freestyle</t>
+  </si>
+  <si>
+    <t>Ex: John Doe</t>
+  </si>
+  <si>
+    <t>620B</t>
+  </si>
+  <si>
+    <t>416B</t>
+  </si>
+  <si>
+    <t>317 A</t>
+  </si>
+  <si>
+    <t>316A</t>
+  </si>
+  <si>
+    <t>405A</t>
+  </si>
+  <si>
+    <t>106A</t>
+  </si>
+  <si>
+    <t>215A</t>
+  </si>
+  <si>
+    <t>410B</t>
+  </si>
+  <si>
+    <t>404A</t>
+  </si>
+  <si>
+    <t>401A</t>
+  </si>
+  <si>
+    <t>Birou Administrație</t>
+  </si>
+  <si>
+    <t>104A capitala smecheriei😘</t>
+  </si>
+  <si>
+    <t>317A</t>
+  </si>
+  <si>
+    <t>105A🫵😜</t>
+  </si>
+  <si>
+    <t>407B</t>
+  </si>
+  <si>
+    <t>104A</t>
+  </si>
+  <si>
+    <t>406B</t>
+  </si>
+  <si>
+    <t>312B</t>
+  </si>
+  <si>
+    <t>108A</t>
+  </si>
+  <si>
+    <t>403A</t>
+  </si>
+  <si>
+    <t>Burtea Iustin-Gabriel</t>
+  </si>
+  <si>
+    <t>113B</t>
+  </si>
+  <si>
+    <t>Silviu Nanu</t>
+  </si>
+  <si>
+    <t>403B</t>
+  </si>
+  <si>
+    <t>Balaban Raul</t>
+  </si>
+  <si>
+    <t>Oprea Alexandra</t>
+  </si>
+  <si>
+    <t>118B</t>
+  </si>
+  <si>
+    <t>Avram Vladut</t>
+  </si>
+  <si>
+    <t>Gherghinescu Marilena Alexandra</t>
+  </si>
+  <si>
+    <t>Logofătul Miriam</t>
+  </si>
+  <si>
+    <t>411b</t>
+  </si>
+  <si>
+    <t>Damian Alexandru</t>
+  </si>
+  <si>
+    <t>208A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,13 +469,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -247,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -257,6 +528,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,7 +826,7 @@
     <col min="3" max="3" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,296 +842,661 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="3">
+        <v>759109957</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="3">
+        <v>732286223</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="3">
+        <v>767777384</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="114" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="F5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="3">
+        <v>751854745</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3">
+        <v>747939881</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="3">
+        <v>720204028</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="3">
+        <v>753894188</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="89" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="3">
+        <v>727246102</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="3">
+        <v>740501161</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="176.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="176.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="3">
+        <v>762504085</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="3">
+        <v>733408274</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="114" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3">
+        <v>729535878</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="3">
+        <v>761133530</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="3">
+        <v>733767374</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="164" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="164" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="3">
+        <v>783014661</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="3">
+        <v>787645252</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="3">
+        <v>770459178</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="3">
+        <v>732536606</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="151.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="151.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="3">
+        <v>37901778</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="3">
+        <v>728394233</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="3">
+        <v>758288425</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="3">
+        <v>775245972</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="201.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="201.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="3">
+        <v>729191675</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="3">
+        <v>787677536</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="264" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="3">
+        <v>743766108</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="264" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="3">
+        <v>763176869</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="3"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="3">
+        <v>748759283</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="3">
+        <v>743658877</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="3">
+        <v>751439635</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="3">
+        <v>732380680</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="3">
+        <v>722919621</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="3">
+        <v>784894871</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="151.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="3">
+        <v>747158958</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="3">
+        <v>729759377</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Cod random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BA4438-0CB4-4B81-857D-A82F05CF628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48139FBE-22B3-451A-AB3E-3D8AB5162F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
   <si>
     <t>Nume</t>
   </si>
@@ -195,150 +195,51 @@
     <t>șosete...</t>
   </si>
   <si>
-    <t>juliaelena228@gmail.com</t>
-  </si>
-  <si>
-    <t>ovioprescu9@gmail.com</t>
-  </si>
-  <si>
     <t>cana</t>
   </si>
   <si>
-    <t>marius.cosmin005@gmail.com</t>
-  </si>
-  <si>
     <t>Cana, moș de ciocolata</t>
   </si>
   <si>
-    <t>elenaclaudia085@gmail.com</t>
-  </si>
-  <si>
-    <t>ghiurcanasmaria8@gmail.com</t>
-  </si>
-  <si>
     <t>Cana</t>
   </si>
   <si>
-    <t>raduudar5@gmail.com</t>
-  </si>
-  <si>
-    <t>eduard.oprea.148@gmail.com</t>
-  </si>
-  <si>
-    <t>ghineamariacornelia@gmail.com</t>
-  </si>
-  <si>
-    <t>dinuveronica514@gmail.com</t>
-  </si>
-  <si>
-    <t>alexandrzanfir@gmail.com</t>
-  </si>
-  <si>
-    <t>preda0478@gmail.com</t>
-  </si>
-  <si>
-    <t>cirsteaandreeabianca@gmail.com</t>
-  </si>
-  <si>
-    <t>opomega3567@gmail.com</t>
-  </si>
-  <si>
     <t>Cana și dulciuri</t>
   </si>
   <si>
-    <t>gabisaru03@gmail.com</t>
-  </si>
-  <si>
     <t>Imi place sa desenez/pictez etc,imi plac dulciurile ,port 46 la picior/L la tricouri/bluze</t>
   </si>
   <si>
     <t>Poti sa iei orice</t>
   </si>
   <si>
-    <t>annemariee777@gmail.com</t>
-  </si>
-  <si>
-    <t>flaminzeanurobert@gmail.com</t>
-  </si>
-  <si>
-    <t>vladdobre991@gmail.com</t>
-  </si>
-  <si>
-    <t>dvr042002@gmail.com</t>
-  </si>
-  <si>
-    <t>alexvasilescu15@gmail.com</t>
-  </si>
-  <si>
-    <t>tanislav_a@yahoo.com</t>
-  </si>
-  <si>
-    <t>dolhascu111@gmail.com</t>
-  </si>
-  <si>
-    <t>ghitacorina53@gmail.com</t>
-  </si>
-  <si>
-    <t>anda.minciunescu11@gmail.com</t>
-  </si>
-  <si>
     <t>cana, sosete, lumanari</t>
   </si>
   <si>
-    <t>biancamariafl5@gmail.com</t>
-  </si>
-  <si>
-    <t>florifilimbut@gmail.com</t>
-  </si>
-  <si>
-    <t>iustinburtea661@gmail.com</t>
-  </si>
-  <si>
     <t>surprinde ma</t>
   </si>
   <si>
-    <t>silviunanu19@gmail.com</t>
-  </si>
-  <si>
     <t>Fără șosete sau căni pls 🙏</t>
   </si>
   <si>
     <t>îmbrăcăminte (eșarfă, mănuși, chestii de genul)</t>
   </si>
   <si>
-    <t>raulbalaban@yahoo.com</t>
-  </si>
-  <si>
     <t>ce vreți voi</t>
   </si>
   <si>
-    <t>oprralexandra@gmail.com</t>
-  </si>
-  <si>
     <t>Ceva lego puzzle idk ,nu cana😭</t>
   </si>
   <si>
-    <t>avramvladut82@gmail.com</t>
-  </si>
-  <si>
     <t>ce vrea inima ta.</t>
   </si>
   <si>
-    <t>gherghinescualexandra2001@gmail.com</t>
-  </si>
-  <si>
-    <t>logofatul.m.00@gmail.com</t>
-  </si>
-  <si>
     <t>o mașinuță cv nu știu, da' numai să nu fie lamborghini sau bmw)) ms anticipat pup</t>
   </si>
   <si>
     <t>dulciuri, lumanari</t>
   </si>
   <si>
-    <t>alexdamian2500@gmail.com</t>
-  </si>
-  <si>
     <t>mousepad de birou/sosete albe(45), husa telefon(iph 15 pro) sau freestyle</t>
   </si>
   <si>
@@ -348,84 +249,18 @@
     <t>620B</t>
   </si>
   <si>
-    <t>416B</t>
-  </si>
-  <si>
-    <t>317 A</t>
-  </si>
-  <si>
-    <t>316A</t>
-  </si>
-  <si>
-    <t>405A</t>
-  </si>
-  <si>
-    <t>106A</t>
-  </si>
-  <si>
-    <t>215A</t>
-  </si>
-  <si>
-    <t>410B</t>
-  </si>
-  <si>
-    <t>404A</t>
-  </si>
-  <si>
-    <t>401A</t>
-  </si>
-  <si>
-    <t>Birou Administrație</t>
-  </si>
-  <si>
-    <t>104A capitala smecheriei😘</t>
-  </si>
-  <si>
-    <t>317A</t>
-  </si>
-  <si>
-    <t>105A🫵😜</t>
-  </si>
-  <si>
-    <t>407B</t>
-  </si>
-  <si>
-    <t>104A</t>
-  </si>
-  <si>
-    <t>406B</t>
-  </si>
-  <si>
-    <t>312B</t>
-  </si>
-  <si>
-    <t>108A</t>
-  </si>
-  <si>
-    <t>403A</t>
-  </si>
-  <si>
     <t>Burtea Iustin-Gabriel</t>
   </si>
   <si>
-    <t>113B</t>
-  </si>
-  <si>
     <t>Silviu Nanu</t>
   </si>
   <si>
-    <t>403B</t>
-  </si>
-  <si>
     <t>Balaban Raul</t>
   </si>
   <si>
     <t>Oprea Alexandra</t>
   </si>
   <si>
-    <t>118B</t>
-  </si>
-  <si>
     <t>Avram Vladut</t>
   </si>
   <si>
@@ -435,13 +270,7 @@
     <t>Logofătul Miriam</t>
   </si>
   <si>
-    <t>411b</t>
-  </si>
-  <si>
     <t>Damian Alexandru</t>
-  </si>
-  <si>
-    <t>208A</t>
   </si>
 </sst>
 </file>
@@ -518,16 +347,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -818,7 +644,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -847,19 +673,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="2"/>
@@ -868,14 +694,14 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="3">
-        <v>759109957</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -886,91 +712,93 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="3">
-        <v>732286223</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="3">
-        <v>767777384</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>59</v>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
+      <c r="F5" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="114" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="3">
-        <v>751854745</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>61</v>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="3">
-        <v>747939881</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>62</v>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="3">
-        <v>720204028</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
@@ -980,34 +808,34 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="3">
-        <v>753894188</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>64</v>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="89" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="3">
-        <v>727246102</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1018,14 +846,14 @@
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="3">
-        <v>740501161</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1036,34 +864,34 @@
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="3">
-        <v>762504085</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="3">
-        <v>733408274</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -1074,11 +902,15 @@
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -1086,32 +918,32 @@
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="3">
-        <v>729535878</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>69</v>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="3">
-        <v>761133530</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1120,54 +952,54 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="3">
-        <v>733767374</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
+      <c r="B17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="164" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="3">
-        <v>783014661</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="3">
-        <v>787645252</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>76</v>
+      <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1176,32 +1008,32 @@
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="3">
-        <v>770459178</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>77</v>
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="3">
-        <v>732536606</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>78</v>
+      <c r="B21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>34</v>
@@ -1212,14 +1044,14 @@
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="3">
-        <v>37901778</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>79</v>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
@@ -1230,14 +1062,14 @@
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="3">
-        <v>728394233</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>80</v>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>38</v>
@@ -1248,32 +1080,32 @@
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="3">
-        <v>758288425</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>81</v>
+      <c r="B24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="3">
-        <v>775245972</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>82</v>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>42</v>
@@ -1284,50 +1116,50 @@
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="3">
-        <v>729191675</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>83</v>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="3">
-        <v>787677536</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>84</v>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="3">
-        <v>743766108</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>86</v>
+      <c r="B28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1336,165 +1168,165 @@
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="3">
-        <v>763176869</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>87</v>
+      <c r="B29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="3">
-        <v>748759283</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="3">
-        <v>743658877</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="3">
-        <v>751439635</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="3">
-        <v>732380680</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="3">
-        <v>722919621</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="3">
-        <v>784894871</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="151.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="3">
-        <v>747158958</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="3">
-        <v>729759377</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F37" s="2"/>
     </row>
